--- a/강남구_시세지도.xlsx
+++ b/강남구_시세지도.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\simpleFileUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD69E8-C053-495D-9C84-D6FCED9E0A05}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED039694-07D1-4EF2-AB76-AE4095302694}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32370" windowHeight="15405" xr2:uid="{08A950D8-5DE1-469D-BDA0-3F9CBF9FBE38}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>미성2차('87, 911^)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삼성동 선릉LG에클라트?? 주상복합??('03, 418^)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도곡동 도곡우성('86, 390^)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,6 +157,74 @@
   </si>
   <si>
     <t>도곡동 도곡경남('05, 348^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡동 도곡한신('88, 421^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡동 도곡1차아이파크('07, 321^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 디오빌역삼('02, 457^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 역삼자이('16, 408^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 강남센트럴아이파크('22, 499^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 테헤란아이파크('14, 411^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 개나리래미안('06, 438^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 역삼푸르지오('06, 738^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 역삼래미안그레이튼3차('09, 476^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 역삼래미안그레이튼2차('10, 464^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 개나리푸르지오('06, 332^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188000(양도..?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 역삼e편한세상('05, 840^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역삼동 역삼래미안('05, 1050^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성동 선릉LG에클라트 주상복합('03, 418^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동 테헤란로대우아이빌('04, 371^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -588,40 +652,157 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,121 +812,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,438 +1141,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406CE267-C792-4C68-81ED-7CD66471CBB3}">
-  <dimension ref="B1:J139"/>
+  <dimension ref="B1:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="X179" sqref="X179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="9" style="27"/>
+    <col min="3" max="4" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="20">
         <v>265000</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="21">
         <v>60000</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="22">
         <v>380000</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="23">
         <v>110000</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="24">
         <v>122222</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="25">
         <v>120000</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="17">
+      <c r="B8" s="11">
         <v>27</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="16">
+      <c r="B9" s="10">
         <v>33</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="16">
         <v>320000</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="17">
         <v>66000</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18">
+      <c r="B10" s="12">
         <v>49</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="16">
         <v>500000</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="17">
         <v>130000</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19">
+      <c r="B11" s="13">
         <v>58</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="18">
         <v>520000</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>160000</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="17">
+      <c r="B14" s="11">
         <v>34</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="14">
         <v>360000</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="15">
         <v>68000</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="16">
+      <c r="B15" s="10">
         <v>35</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="16">
         <v>340000</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="17">
         <v>73000</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="19">
+      <c r="B16" s="13">
         <v>36</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="18">
         <v>355000</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>90000</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H17" s="18"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="9"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="17">
+      <c r="B19" s="11">
         <v>29</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="14">
         <v>380000</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="15">
         <v>69000</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="16">
+      <c r="B20" s="10">
         <v>30</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="16">
         <v>360000</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="17">
         <v>70000</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19">
+      <c r="B21" s="13">
         <v>31</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>33</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <v>320000</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>55000</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H25" s="16"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <v>34</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="2">
         <v>350000</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>59000</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="7">
+      <c r="B28" s="4">
         <v>36</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="5">
         <v>350000</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="6">
         <v>64000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="9"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="17">
+      <c r="B31" s="11">
         <v>19</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="14">
         <v>225000</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="15">
         <v>39000</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="16">
+      <c r="B32" s="10">
         <v>21</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="18">
+      <c r="B33" s="12">
         <v>25</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="18">
+      <c r="B34" s="12">
         <v>26</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="25"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="16">
+      <c r="B35" s="10">
         <v>27</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="16">
         <v>260000</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="17">
         <v>50000</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="18">
+      <c r="B36" s="12">
         <v>31</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="16">
         <v>290000</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="17">
         <v>50000</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="18">
+      <c r="B37" s="12">
         <v>32</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="18">
+      <c r="B38" s="12">
         <v>35</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="19">
+      <c r="B39" s="13">
         <v>36</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="18">
         <v>345000</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="6">
         <v>90000</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="4">
+      <c r="B42" s="1">
         <v>32</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6">
+      <c r="C42" s="2"/>
+      <c r="D42" s="3">
         <v>59000</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="10">
+      <c r="B43" s="7">
         <v>33</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="8">
         <v>300000</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="9">
         <v>60000</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="7">
+      <c r="B44" s="4">
         <v>36</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="4">
+      <c r="B47" s="1">
         <v>27</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="2">
         <v>210000</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="3">
         <v>62000</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="7">
+      <c r="B48" s="4">
         <v>32</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="5">
         <v>240000</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="6">
         <v>70000</v>
       </c>
     </row>
@@ -1506,261 +1585,261 @@
       <c r="D50" s="39"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="4">
+      <c r="B51" s="1">
         <v>16</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="2">
         <v>92000</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="3">
         <v>32000</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="7">
+      <c r="B52" s="4">
         <v>31</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="5">
         <v>173000</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="6">
         <v>70000</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49"/>
     </row>
     <row r="55" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="7">
+      <c r="B55" s="4">
         <v>31</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="5">
         <v>195000</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="6">
         <v>57000</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="4">
+      <c r="B58" s="1">
         <v>24</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="2">
         <v>158000</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="3">
         <v>66000</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="7">
+      <c r="B59" s="4">
         <v>32</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="5">
         <v>190000</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="6">
         <v>85000</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="49"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="4">
+      <c r="B62" s="1">
         <v>32</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="7">
+      <c r="B63" s="4">
         <v>33</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="5">
         <v>240000</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="6">
         <v>80000</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="52"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="4">
+      <c r="B66" s="1">
         <v>21</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="2">
         <v>175000</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="3">
         <v>74000</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="10">
+      <c r="B67" s="7">
         <v>33</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="8">
         <v>310000</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="9">
         <v>130000</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="7">
+      <c r="B68" s="4">
         <v>36</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="5">
         <v>320000</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="6">
         <v>145000</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="52"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="4">
+      <c r="B71" s="1">
         <v>33</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="2">
         <v>310000</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="10">
+      <c r="B72" s="7">
         <v>34</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="8">
         <v>310000</v>
       </c>
-      <c r="D72" s="15"/>
+      <c r="D72" s="9"/>
     </row>
     <row r="73" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="7">
+      <c r="B73" s="4">
         <v>35</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="5">
         <v>280000</v>
       </c>
-      <c r="D73" s="9"/>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="34" t="s">
+      <c r="B75" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C75" s="35"/>
       <c r="D75" s="36"/>
     </row>
     <row r="76" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="5">
         <v>237000</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="6">
         <v>105000</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="52"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="4">
+      <c r="B79" s="1">
         <v>23</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="2">
         <v>150000</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="3">
         <v>65000</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="10">
+      <c r="B80" s="7">
         <v>30</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="15"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="7">
+      <c r="B81" s="4">
         <v>31</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="5">
         <v>200000</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="6">
         <v>80000</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C83" s="35"/>
       <c r="D83" s="36"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="4">
+      <c r="B84" s="1">
         <v>32</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="2">
         <v>260000</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="3">
         <v>108000</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="7">
+      <c r="B85" s="4">
         <v>38</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="5">
         <v>280000</v>
       </c>
-      <c r="D85" s="9"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="87" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1771,72 +1850,72 @@
       <c r="D87" s="39"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="4">
+      <c r="B88" s="1">
         <v>14</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="2">
         <v>103000</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="3">
         <v>50000</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="7">
+      <c r="B89" s="4">
         <v>33</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="5">
         <v>270000</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="6">
         <v>106000</v>
       </c>
     </row>
     <row r="90" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="91" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="21"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="34"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="17">
+      <c r="B92" s="11">
         <v>24</v>
       </c>
-      <c r="C92" s="22">
+      <c r="C92" s="14">
         <v>150000</v>
       </c>
-      <c r="D92" s="23">
+      <c r="D92" s="15">
         <v>60000</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="16">
+      <c r="B93" s="10">
         <v>31</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="25"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="17"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="18">
+      <c r="B94" s="12">
         <v>34</v>
       </c>
-      <c r="C94" s="24">
+      <c r="C94" s="16">
         <v>210000</v>
       </c>
-      <c r="D94" s="25">
+      <c r="D94" s="17">
         <v>75000</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="19">
+      <c r="B95" s="13">
         <v>37</v>
       </c>
-      <c r="C95" s="26">
+      <c r="C95" s="18">
         <v>215000</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="6">
         <v>85000</v>
       </c>
     </row>
@@ -1849,35 +1928,35 @@
       <c r="D97" s="42"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="4">
+      <c r="B98" s="1">
         <v>25</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="2">
         <v>280000</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="3">
         <v>118000</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="10">
+      <c r="B99" s="7">
         <v>30</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="8">
         <v>300000</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="9">
         <v>160000</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="7">
+      <c r="B100" s="4">
         <v>34</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="5">
         <v>345000</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="6">
         <v>170000</v>
       </c>
     </row>
@@ -1890,33 +1969,33 @@
       <c r="D102" s="45"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="4">
+      <c r="B103" s="1">
         <v>22</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="2">
         <v>180000</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="3">
         <v>90000</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="10">
+      <c r="B104" s="7">
         <v>25</v>
       </c>
-      <c r="C104" s="14">
+      <c r="C104" s="8">
         <v>210000</v>
       </c>
-      <c r="D104" s="15"/>
+      <c r="D104" s="9"/>
     </row>
     <row r="105" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="7">
+      <c r="B105" s="4">
         <v>34</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="5">
         <v>320000</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="6">
         <v>128000</v>
       </c>
     </row>
@@ -1925,271 +2004,715 @@
       <c r="B107" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="48"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="47"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="17">
+      <c r="B108" s="11">
         <v>15</v>
       </c>
-      <c r="C108" s="22"/>
-      <c r="D108" s="23">
+      <c r="C108" s="14"/>
+      <c r="D108" s="15">
         <v>52000</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C109" s="24">
+      <c r="C109" s="16">
         <v>150000</v>
       </c>
-      <c r="D109" s="25">
+      <c r="D109" s="17">
         <v>55000</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="18">
+      <c r="B110" s="12">
         <v>18</v>
       </c>
-      <c r="C110" s="24">
+      <c r="C110" s="16">
         <v>165000</v>
       </c>
-      <c r="D110" s="25"/>
+      <c r="D110" s="17"/>
     </row>
     <row r="111" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="19">
+      <c r="B111" s="13">
         <v>33</v>
       </c>
-      <c r="C111" s="26">
+      <c r="C111" s="18">
         <v>245000</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="6">
         <v>97000</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="113" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="50" t="s">
+      <c r="B113" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="51"/>
-      <c r="D113" s="52"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="28"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="4">
+      <c r="B114" s="1">
         <v>31</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="2">
         <v>290000</v>
       </c>
-      <c r="D114" s="6"/>
+      <c r="D114" s="3"/>
     </row>
     <row r="115" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="7">
+      <c r="B115" s="4">
         <v>35</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="5">
         <v>360000</v>
       </c>
-      <c r="D115" s="9"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C117" s="46"/>
-      <c r="D117" s="47"/>
+      <c r="B117" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" s="30"/>
+      <c r="D117" s="31"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="17">
+      <c r="B118" s="11">
         <v>13</v>
       </c>
-      <c r="C118" s="22"/>
-      <c r="D118" s="23"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="16">
+      <c r="B119" s="10">
         <v>14</v>
       </c>
-      <c r="C119" s="24"/>
-      <c r="D119" s="25"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="17"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" s="18">
+      <c r="B120" s="12">
         <v>15</v>
       </c>
-      <c r="C120" s="24"/>
-      <c r="D120" s="25"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="17"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" s="18">
+      <c r="B121" s="12">
         <v>19</v>
       </c>
-      <c r="C121" s="24"/>
-      <c r="D121" s="25"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="17"/>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" s="18">
+      <c r="B122" s="12">
         <v>22</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="25"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="17"/>
     </row>
     <row r="123" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="19">
+      <c r="B123" s="13">
         <v>23</v>
       </c>
-      <c r="C123" s="26"/>
-      <c r="D123" s="9"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="125" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="50" t="s">
+      <c r="B125" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="27"/>
+      <c r="D125" s="28"/>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="1">
+        <v>28</v>
+      </c>
+      <c r="C126" s="2">
+        <v>175000</v>
+      </c>
+      <c r="D126" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="4">
         <v>30</v>
       </c>
-      <c r="C125" s="51"/>
-      <c r="D125" s="52"/>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B126" s="4">
-        <v>28</v>
-      </c>
-      <c r="C126" s="5">
-        <v>175000</v>
-      </c>
-      <c r="D126" s="6">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="7">
-        <v>30</v>
-      </c>
-      <c r="C127" s="8">
+      <c r="C127" s="5">
         <v>185000</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="6">
         <v>60000</v>
       </c>
     </row>
     <row r="128" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C129" s="51"/>
-      <c r="D129" s="52"/>
+      <c r="B129" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="27"/>
+      <c r="D129" s="28"/>
     </row>
     <row r="130" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="7">
+      <c r="B130" s="4">
         <v>25</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="5">
         <v>180000</v>
       </c>
-      <c r="D130" s="9">
+      <c r="D130" s="6">
         <v>80000</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C132" s="51"/>
-      <c r="D132" s="52"/>
+      <c r="B132" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C132" s="27"/>
+      <c r="D132" s="28"/>
     </row>
     <row r="133" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="7">
+      <c r="B133" s="4">
         <v>33</v>
       </c>
-      <c r="C133" s="8">
+      <c r="C133" s="5">
         <v>180000</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D133" s="6">
         <v>70000</v>
       </c>
     </row>
     <row r="134" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="135" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" s="33"/>
+      <c r="D135" s="34"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" s="11">
+        <v>23</v>
+      </c>
+      <c r="C136" s="14">
+        <v>155000</v>
+      </c>
+      <c r="D136" s="15">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="10">
+        <v>24</v>
+      </c>
+      <c r="C137" s="16">
+        <v>165000</v>
+      </c>
+      <c r="D137" s="17">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="12">
+        <v>32</v>
+      </c>
+      <c r="C138" s="16">
+        <v>200000</v>
+      </c>
+      <c r="D138" s="17">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="13">
+        <v>35</v>
+      </c>
+      <c r="C139" s="18">
+        <v>180000</v>
+      </c>
+      <c r="D139" s="6">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="141" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C135" s="20"/>
-      <c r="D135" s="21"/>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B136" s="17">
+      <c r="C141" s="27"/>
+      <c r="D141" s="28"/>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142" s="1">
+        <v>24</v>
+      </c>
+      <c r="C142" s="2">
+        <v>165000</v>
+      </c>
+      <c r="D142" s="3">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="4">
+        <v>30</v>
+      </c>
+      <c r="C143" s="5">
+        <v>185000</v>
+      </c>
+      <c r="D143" s="6">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="145" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="35"/>
+      <c r="D145" s="36"/>
+    </row>
+    <row r="146" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="4">
+        <v>33</v>
+      </c>
+      <c r="C146" s="5">
+        <v>204000</v>
+      </c>
+      <c r="D146" s="6">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="148" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" s="55"/>
+      <c r="D148" s="56"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B149" s="1">
+        <v>15</v>
+      </c>
+      <c r="C149" s="2">
+        <v>39000</v>
+      </c>
+      <c r="D149" s="3">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B150" s="7">
         <v>23</v>
       </c>
-      <c r="C136" s="22">
-        <v>155000</v>
-      </c>
-      <c r="D136" s="23">
+      <c r="C150" s="8">
+        <v>80000</v>
+      </c>
+      <c r="D150" s="9">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="4">
+        <v>33</v>
+      </c>
+      <c r="C151" s="5">
+        <v>150000</v>
+      </c>
+      <c r="D151" s="6">
         <v>70000</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B137" s="16">
+    <row r="152" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="153" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="27"/>
+      <c r="D153" s="28"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B154" s="1">
+        <v>26</v>
+      </c>
+      <c r="C154" s="2">
+        <v>195000</v>
+      </c>
+      <c r="D154" s="3">
+        <v>55300</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="4">
+        <v>34</v>
+      </c>
+      <c r="C155" s="5">
+        <v>248000</v>
+      </c>
+      <c r="D155" s="6">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="157" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B157" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C157" s="38"/>
+      <c r="D157" s="39"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B158" s="1">
         <v>24</v>
       </c>
-      <c r="C137" s="24">
-        <v>165000</v>
-      </c>
-      <c r="D137" s="25">
+      <c r="C158" s="2"/>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B159" s="4">
+        <v>33</v>
+      </c>
+      <c r="C159" s="5">
+        <v>290000</v>
+      </c>
+      <c r="D159" s="6">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="161" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C161" s="30"/>
+      <c r="D161" s="31"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B162" s="11">
+        <v>25</v>
+      </c>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B163" s="10">
+        <v>28</v>
+      </c>
+      <c r="C163" s="16">
+        <v>250000</v>
+      </c>
+      <c r="D163" s="17">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B164" s="12">
+        <v>31</v>
+      </c>
+      <c r="C164" s="16">
+        <v>255000</v>
+      </c>
+      <c r="D164" s="17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B165" s="12">
+        <v>32</v>
+      </c>
+      <c r="C165" s="16"/>
+      <c r="D165" s="17">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="13">
+        <v>35</v>
+      </c>
+      <c r="C166" s="18">
+        <v>255000</v>
+      </c>
+      <c r="D166" s="6">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="168" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B168" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C168" s="27"/>
+      <c r="D168" s="28"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B169" s="1">
+        <v>23</v>
+      </c>
+      <c r="C169" s="2">
+        <v>185000</v>
+      </c>
+      <c r="D169" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B170" s="4">
+        <v>33</v>
+      </c>
+      <c r="C170" s="5">
+        <v>240000</v>
+      </c>
+      <c r="D170" s="6">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="172" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B172" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C172" s="27"/>
+      <c r="D172" s="28"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B173" s="1">
+        <v>24</v>
+      </c>
+      <c r="C173" s="2">
+        <v>180000</v>
+      </c>
+      <c r="D173" s="3">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B174" s="4">
+        <v>31</v>
+      </c>
+      <c r="C174" s="5">
+        <v>238000</v>
+      </c>
+      <c r="D174" s="6">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="176" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B176" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C176" s="44"/>
+      <c r="D176" s="45"/>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B177" s="1">
+        <v>26</v>
+      </c>
+      <c r="C177" s="2">
+        <v>180000</v>
+      </c>
+      <c r="D177" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B178" s="7">
+        <v>29</v>
+      </c>
+      <c r="C178" s="8">
+        <v>220000</v>
+      </c>
+      <c r="D178" s="9">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B179" s="4">
+        <v>34</v>
+      </c>
+      <c r="C179" s="5">
+        <v>240000</v>
+      </c>
+      <c r="D179" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="181" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B181" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C181" s="38"/>
+      <c r="D181" s="39"/>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B182" s="1">
+        <v>26</v>
+      </c>
+      <c r="C182" s="2">
+        <v>215000</v>
+      </c>
+      <c r="D182" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B183" s="4">
+        <v>33</v>
+      </c>
+      <c r="C183" s="5">
+        <v>290000</v>
+      </c>
+      <c r="D183" s="6">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="185" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B185" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C185" s="35"/>
+      <c r="D185" s="36"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B186" s="1">
+        <v>24</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D186" s="3">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B187" s="4">
+        <v>33</v>
+      </c>
+      <c r="C187" s="5">
+        <v>270000</v>
+      </c>
+      <c r="D187" s="6">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="189" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B189" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C189" s="35"/>
+      <c r="D189" s="36"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B190" s="1">
+        <v>24</v>
+      </c>
+      <c r="C190" s="2">
+        <v>188000</v>
+      </c>
+      <c r="D190" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B191" s="4">
+        <v>32</v>
+      </c>
+      <c r="C191" s="5">
+        <v>230000</v>
+      </c>
+      <c r="D191" s="6">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="193" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B193" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C193" s="35"/>
+      <c r="D193" s="36"/>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B194" s="1">
+        <v>24</v>
+      </c>
+      <c r="C194" s="2">
+        <v>173000</v>
+      </c>
+      <c r="D194" s="3">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B195" s="4">
+        <v>33</v>
+      </c>
+      <c r="C195" s="5">
+        <v>230000</v>
+      </c>
+      <c r="D195" s="6">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="197" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B197" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C197" s="44"/>
+      <c r="D197" s="45"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B198" s="1">
+        <v>24</v>
+      </c>
+      <c r="C198" s="2">
+        <v>88000</v>
+      </c>
+      <c r="D198" s="3">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B199" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C199" s="5">
         <v>65000</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B138" s="18">
-        <v>32</v>
-      </c>
-      <c r="C138" s="24">
-        <v>200000</v>
-      </c>
-      <c r="D138" s="25">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="19">
-        <v>35</v>
-      </c>
-      <c r="C139" s="26">
-        <v>180000</v>
-      </c>
-      <c r="D139" s="9">
-        <v>90000</v>
+      <c r="D199" s="6">
+        <v>85000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
+  <mergeCells count="47">
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B157:D157"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H7:J7"/>
@@ -2199,6 +2722,30 @@
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B132:D132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2218,97 +2765,97 @@
   <sheetData>
     <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="8" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="15" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="24" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="18"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="19"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/강남구_시세지도.xlsx
+++ b/강남구_시세지도.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\simpleFileUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED039694-07D1-4EF2-AB76-AE4095302694}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DA89D0B-9AFA-4A12-BAC6-3B9D91B65B99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32370" windowHeight="15405" xr2:uid="{08A950D8-5DE1-469D-BDA0-3F9CBF9FBE38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08A950D8-5DE1-469D-BDA0-3F9CBF9FBE38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>미성2차('87, 911^)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,290 @@
   </si>
   <si>
     <t>26,27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동 대치아이파크('08, 768^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>래미안대치팰리스1단지('15, 1278^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치삼성1차('00, 960^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>래미안대치팰리스2단지('15, 330^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치현대('99, 630^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치푸르지오써밋('23, 489^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동 은마('79, 4424^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동 우성1차('84, 476^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동 쌍용대치2차('83, 364^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동 대치쌍용1차('83, 630^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡동 개포한신('85, 620^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡동 개포우성4차('85, 459^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>래미안도곡카운티('16, 397^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡동 도곡렉슬('06, 3002^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡삼성래미안('01, 732^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡동 대림아크로빌('99, 490^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실상 거래가 없었음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아카데미스위트('04, 414^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡동 타워팰리스2차('03, 813^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도곡동 타워팰리스2차('02, 1297^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동 개포우성2차('84, 450^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동 개포우성1차('83, 690^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동 선경('83, 1034^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한보미도맨션1,2차('83, 2436^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개포동 현대2차('86, 558^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개포래미안포레스트('20, 2296^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개포동 현대1차('84, 416^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개포동 경남('84, 678^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개포동 우성3차('84, 405^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디에이치퍼스티어아이파크('24, 6702^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>래미안블레스티지('19,1957^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디에이치아너힐즈('19, 1320^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개포주공5단지('83,940^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개포주공6단지('83,1060^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개포주공7단지('83,900^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개포자이프레지던스('23, 3375^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치2단지('92, 1758^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개포동 대청('92, 822^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디에이치자이개포('21,1996^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원동우성7차('87,802^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원동 개포한신('84, 364^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>래미안개포루체하임('18, 850^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원동 수서1단지('92,2934^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원동 한솔('94, 570^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원동 푸른마을('94, 930^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원동 샘터마을('94, 628^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원동 상록수('93, 740^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원동 가람('93, 496^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일원동 목련타운('93, 650^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서동 까치마을('93,1403^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서동 삼성('97, 680^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남데시앙포레('14, 787^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서동 동익('93, 330^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서동 신동아('92, 1162^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서동 삼익('92,645^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수서동 수서한아름('93, 498^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LH강남힐스테이트('15, 1339^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자곡동 강남브리즈힐('14, 402^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자곡동 래미안강남힐즈('14, 1020^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남자곡아이파크('14, 716^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디아크리온강남('23, 597^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자곡동 래미안포레('14, 1070^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남한양수자인('14, 1304^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세곡동 세곡푸르지오('12, 912^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남신동아파밀리에1단지('11, 395^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남데시앙파크5단지('14, 1304^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남신동아파밀리에2단지('11, 395^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세곡리엔파크3단지('11, 363^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세곡동 강남LH1단지('13, 809^)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남한신휴플러스6단지('15, 378^)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +567,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,6 +1029,102 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,61 +1134,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,28 +1149,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{406CE267-C792-4C68-81ED-7CD66471CBB3}">
-  <dimension ref="B1:J199"/>
+  <dimension ref="B1:J515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="X179" sqref="X179"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="J494" sqref="J494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1154,14 +1482,14 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1204,14 +1532,14 @@
     </row>
     <row r="6" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
@@ -1264,11 +1592,11 @@
     </row>
     <row r="12" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11">
@@ -1280,9 +1608,9 @@
       <c r="D14" s="15">
         <v>68000</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
@@ -1318,11 +1646,11 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
       <c r="H18" s="13"/>
       <c r="I18" s="18"/>
       <c r="J18" s="6"/>
@@ -1358,14 +1686,14 @@
     </row>
     <row r="22" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
@@ -1387,11 +1715,11 @@
       <c r="J25" s="17"/>
     </row>
     <row r="26" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
       <c r="H26" s="12"/>
       <c r="I26" s="16"/>
       <c r="J26" s="17"/>
@@ -1426,11 +1754,11 @@
     </row>
     <row r="29" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
@@ -1513,11 +1841,11 @@
     </row>
     <row r="40" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
@@ -1548,11 +1876,11 @@
     </row>
     <row r="45" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1">
@@ -1578,11 +1906,11 @@
     </row>
     <row r="49" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
@@ -1608,11 +1936,11 @@
     </row>
     <row r="53" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="54" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
     </row>
     <row r="55" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="4">
@@ -1627,11 +1955,11 @@
     </row>
     <row r="56" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="1">
@@ -1657,11 +1985,11 @@
     </row>
     <row r="60" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="61" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="49"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="1">
@@ -1683,11 +2011,11 @@
     </row>
     <row r="64" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="65" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="52"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="63"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="1">
@@ -1724,11 +2052,11 @@
     </row>
     <row r="69" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="70" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="52"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="63"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="1">
@@ -1759,11 +2087,11 @@
     </row>
     <row r="74" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="36"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="51"/>
     </row>
     <row r="76" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
@@ -1778,11 +2106,11 @@
     </row>
     <row r="77" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="78" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="52"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="1">
@@ -1815,11 +2143,11 @@
     </row>
     <row r="82" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="36"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="51"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
@@ -1843,11 +2171,11 @@
     </row>
     <row r="86" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="87" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="39"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="54"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
@@ -1873,11 +2201,11 @@
     </row>
     <row r="90" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="91" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="34"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="39"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="11">
@@ -1921,11 +2249,11 @@
     </row>
     <row r="96" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C97" s="41"/>
-      <c r="D97" s="42"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="36"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="1">
@@ -1962,11 +2290,11 @@
     </row>
     <row r="101" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="102" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="44"/>
-      <c r="D102" s="45"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="42"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="1">
@@ -2001,11 +2329,11 @@
     </row>
     <row r="106" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="107" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="46"/>
-      <c r="D107" s="47"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="57"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="11">
@@ -2049,11 +2377,11 @@
     </row>
     <row r="112" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="113" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="26" t="s">
+      <c r="B113" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="28"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="60"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" s="1">
@@ -2075,11 +2403,11 @@
     </row>
     <row r="116" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="29" t="s">
+      <c r="B117" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C117" s="30"/>
-      <c r="D117" s="31"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="48"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="11">
@@ -2125,11 +2453,11 @@
     </row>
     <row r="124" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="125" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="26" t="s">
+      <c r="B125" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C125" s="27"/>
-      <c r="D125" s="28"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="60"/>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" s="1">
@@ -2155,11 +2483,11 @@
     </row>
     <row r="128" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C129" s="27"/>
-      <c r="D129" s="28"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="60"/>
     </row>
     <row r="130" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B130" s="4">
@@ -2174,11 +2502,11 @@
     </row>
     <row r="131" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="26" t="s">
+      <c r="B132" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="27"/>
-      <c r="D132" s="28"/>
+      <c r="C132" s="59"/>
+      <c r="D132" s="60"/>
     </row>
     <row r="133" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B133" s="4">
@@ -2193,11 +2521,11 @@
     </row>
     <row r="134" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="135" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="32" t="s">
+      <c r="B135" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C135" s="33"/>
-      <c r="D135" s="34"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="39"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" s="11">
@@ -2245,11 +2573,11 @@
     </row>
     <row r="140" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="141" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="26" t="s">
+      <c r="B141" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C141" s="27"/>
-      <c r="D141" s="28"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="60"/>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" s="1">
@@ -2275,11 +2603,11 @@
     </row>
     <row r="144" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="145" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="53" t="s">
+      <c r="B145" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C145" s="35"/>
-      <c r="D145" s="36"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="51"/>
     </row>
     <row r="146" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="4">
@@ -2294,11 +2622,11 @@
     </row>
     <row r="147" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="148" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="54" t="s">
+      <c r="B148" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C148" s="55"/>
-      <c r="D148" s="56"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="33"/>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" s="1">
@@ -2335,11 +2663,11 @@
     </row>
     <row r="152" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="26" t="s">
+      <c r="B153" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C153" s="27"/>
-      <c r="D153" s="28"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="60"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" s="1">
@@ -2365,11 +2693,11 @@
     </row>
     <row r="156" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="157" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="37" t="s">
+      <c r="B157" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C157" s="38"/>
-      <c r="D157" s="39"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="54"/>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" s="1">
@@ -2391,11 +2719,11 @@
     </row>
     <row r="160" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="161" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="53" t="s">
+      <c r="B161" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C161" s="30"/>
-      <c r="D161" s="31"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="48"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162" s="11">
@@ -2448,11 +2776,11 @@
     </row>
     <row r="167" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="168" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="26" t="s">
+      <c r="B168" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C168" s="27"/>
-      <c r="D168" s="28"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="60"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" s="1">
@@ -2478,11 +2806,11 @@
     </row>
     <row r="171" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="26" t="s">
+      <c r="B172" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C172" s="27"/>
-      <c r="D172" s="28"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="60"/>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" s="1">
@@ -2508,11 +2836,11 @@
     </row>
     <row r="175" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="176" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="43" t="s">
+      <c r="B176" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C176" s="44"/>
-      <c r="D176" s="45"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="42"/>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" s="1">
@@ -2549,11 +2877,11 @@
     </row>
     <row r="180" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="181" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="37" t="s">
+      <c r="B181" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C181" s="38"/>
-      <c r="D181" s="39"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="54"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" s="1">
@@ -2579,11 +2907,11 @@
     </row>
     <row r="184" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="185" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="53" t="s">
+      <c r="B185" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C185" s="35"/>
-      <c r="D185" s="36"/>
+      <c r="C185" s="50"/>
+      <c r="D185" s="51"/>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" s="1">
@@ -2609,11 +2937,11 @@
     </row>
     <row r="188" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="189" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="53" t="s">
+      <c r="B189" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C189" s="35"/>
-      <c r="D189" s="36"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="51"/>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" s="1">
@@ -2639,11 +2967,11 @@
     </row>
     <row r="192" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="193" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="53" t="s">
+      <c r="B193" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C193" s="35"/>
-      <c r="D193" s="36"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="51"/>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194" s="1">
@@ -2667,42 +2995,2526 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="196" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="196" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C196"/>
+      <c r="D196"/>
+    </row>
     <row r="197" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="43" t="s">
+      <c r="B197" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C197" s="38"/>
+      <c r="D197" s="39"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B198" s="11">
+        <v>24</v>
+      </c>
+      <c r="C198" s="14">
+        <v>190000</v>
+      </c>
+      <c r="D198" s="15">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B199" s="10">
+        <v>29</v>
+      </c>
+      <c r="C199" s="16">
+        <v>240000</v>
+      </c>
+      <c r="D199" s="17">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B200" s="12">
+        <v>33</v>
+      </c>
+      <c r="C200" s="16">
+        <v>290000</v>
+      </c>
+      <c r="D200" s="17">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B201" s="13">
+        <v>36</v>
+      </c>
+      <c r="C201" s="18">
+        <v>310000</v>
+      </c>
+      <c r="D201" s="6">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C202"/>
+      <c r="D202"/>
+    </row>
+    <row r="203" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B203" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C203" s="41"/>
+      <c r="D203" s="42"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B204" s="1">
+        <v>26</v>
+      </c>
+      <c r="C204" s="2">
+        <v>175000</v>
+      </c>
+      <c r="D204" s="3">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B205" s="4">
+        <v>33</v>
+      </c>
+      <c r="C205" s="5">
+        <v>257000</v>
+      </c>
+      <c r="D205" s="6">
+        <v>109000</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C206"/>
+      <c r="D206"/>
+    </row>
+    <row r="207" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B207" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C207" s="41"/>
+      <c r="D207" s="42"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B208" s="1">
+        <v>24</v>
+      </c>
+      <c r="C208" s="2">
+        <v>190000</v>
+      </c>
+      <c r="D208" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B209" s="7">
+        <v>34</v>
+      </c>
+      <c r="C209" s="8">
+        <v>240000</v>
+      </c>
+      <c r="D209" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B210" s="4">
+        <v>36</v>
+      </c>
+      <c r="C210" s="5">
+        <v>209000</v>
+      </c>
+      <c r="D210" s="6">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C211"/>
+      <c r="D211"/>
+    </row>
+    <row r="212" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B212" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C197" s="44"/>
-      <c r="D197" s="45"/>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B198" s="1">
+      <c r="C212" s="41"/>
+      <c r="D212" s="42"/>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B213" s="1">
         <v>24</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C213" s="2">
         <v>88000</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D213" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="199" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="57" t="s">
+    <row r="214" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B214" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C214" s="5">
         <v>65000</v>
       </c>
-      <c r="D199" s="6">
+      <c r="D214" s="6">
         <v>85000</v>
       </c>
     </row>
+    <row r="215" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="216" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B216" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C216" s="41"/>
+      <c r="D216" s="42"/>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B217" s="1">
+        <v>23</v>
+      </c>
+      <c r="C217" s="2">
+        <v>198000</v>
+      </c>
+      <c r="D217" s="3">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B218" s="7">
+        <v>32</v>
+      </c>
+      <c r="C218" s="8">
+        <v>260000</v>
+      </c>
+      <c r="D218" s="9">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B219" s="4">
+        <v>33</v>
+      </c>
+      <c r="C219" s="5">
+        <v>290000</v>
+      </c>
+      <c r="D219" s="6">
+        <v>241000</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="221" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B221" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C221" s="47"/>
+      <c r="D221" s="48"/>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B222" s="11">
+        <v>26</v>
+      </c>
+      <c r="C222" s="27">
+        <v>250000</v>
+      </c>
+      <c r="D222" s="15">
+        <v>62947</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B223" s="10">
+        <v>31</v>
+      </c>
+      <c r="C223" s="16">
+        <v>310000</v>
+      </c>
+      <c r="D223" s="17"/>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B224" s="12">
+        <v>33</v>
+      </c>
+      <c r="C224" s="16">
+        <v>300000</v>
+      </c>
+      <c r="D224" s="17">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B225" s="12">
+        <v>34</v>
+      </c>
+      <c r="C225" s="16">
+        <v>300000</v>
+      </c>
+      <c r="D225" s="17">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B226" s="12">
+        <v>36</v>
+      </c>
+      <c r="C226" s="16"/>
+      <c r="D226" s="17"/>
+    </row>
+    <row r="227" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B227" s="13">
+        <v>37</v>
+      </c>
+      <c r="C227" s="18">
+        <v>330000</v>
+      </c>
+      <c r="D227" s="6">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="229" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B229" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C229" s="41"/>
+      <c r="D229" s="42"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B230" s="1">
+        <v>26</v>
+      </c>
+      <c r="C230" s="2">
+        <v>165000</v>
+      </c>
+      <c r="D230" s="3">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B231" s="7">
+        <v>32</v>
+      </c>
+      <c r="C231" s="8">
+        <v>220000</v>
+      </c>
+      <c r="D231" s="9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B232" s="4">
+        <v>37</v>
+      </c>
+      <c r="C232" s="5">
+        <v>240000</v>
+      </c>
+      <c r="D232" s="6">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="234" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B234" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C234" s="41"/>
+      <c r="D234" s="42"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B235" s="1">
+        <v>36</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="D235" s="3"/>
+    </row>
+    <row r="236" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B236" s="4">
+        <v>37</v>
+      </c>
+      <c r="C236" s="5">
+        <v>310000</v>
+      </c>
+      <c r="D236" s="6">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="238" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B238" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C238" s="41"/>
+      <c r="D238" s="42"/>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B239" s="1">
+        <v>26</v>
+      </c>
+      <c r="C239" s="2">
+        <v>165000</v>
+      </c>
+      <c r="D239" s="3">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B240" s="4">
+        <v>33</v>
+      </c>
+      <c r="C240" s="5">
+        <v>215000</v>
+      </c>
+      <c r="D240" s="6">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="242" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B242" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C242" s="44"/>
+      <c r="D242" s="45"/>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B243" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C243" s="14">
+        <v>172000</v>
+      </c>
+      <c r="D243" s="15">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B244" s="29">
+        <v>23</v>
+      </c>
+      <c r="C244" s="16">
+        <v>216000</v>
+      </c>
+      <c r="D244" s="17">
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B245" s="30">
+        <v>33</v>
+      </c>
+      <c r="C245" s="18">
+        <v>293000</v>
+      </c>
+      <c r="D245" s="6">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="247" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B247" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C247" s="32"/>
+      <c r="D247" s="33"/>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B248" s="1">
+        <v>30</v>
+      </c>
+      <c r="C248" s="2">
+        <v>208000</v>
+      </c>
+      <c r="D248" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B249" s="4">
+        <v>35</v>
+      </c>
+      <c r="C249" s="5">
+        <v>239000</v>
+      </c>
+      <c r="D249" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="251" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B251" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C251" s="32"/>
+      <c r="D251" s="33"/>
+    </row>
+    <row r="252" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B252" s="4">
+        <v>31</v>
+      </c>
+      <c r="C252" s="5">
+        <v>230000</v>
+      </c>
+      <c r="D252" s="6">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="254" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B254" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C254" s="32"/>
+      <c r="D254" s="33"/>
+    </row>
+    <row r="255" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B255" s="4">
+        <v>31</v>
+      </c>
+      <c r="C255" s="5">
+        <v>250000</v>
+      </c>
+      <c r="D255" s="6">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="257" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B257" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C257" s="32"/>
+      <c r="D257" s="33"/>
+    </row>
+    <row r="258" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B258" s="4">
+        <v>31</v>
+      </c>
+      <c r="C258" s="5">
+        <v>250000</v>
+      </c>
+      <c r="D258" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="260" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B260" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C260" s="32"/>
+      <c r="D260" s="33"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B261" s="1">
+        <v>22</v>
+      </c>
+      <c r="C261" s="2">
+        <v>190000</v>
+      </c>
+      <c r="D261" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B262" s="7">
+        <v>25</v>
+      </c>
+      <c r="C262" s="8">
+        <v>220000</v>
+      </c>
+      <c r="D262" s="9">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B263" s="4">
+        <v>31</v>
+      </c>
+      <c r="C263" s="5">
+        <v>260000</v>
+      </c>
+      <c r="D263" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="265" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B265" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C265" s="32"/>
+      <c r="D265" s="33"/>
+    </row>
+    <row r="266" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B266" s="4">
+        <v>34</v>
+      </c>
+      <c r="C266" s="5">
+        <v>270000</v>
+      </c>
+      <c r="D266" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="268" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B268" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C268" s="32"/>
+      <c r="D268" s="33"/>
+    </row>
+    <row r="269" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B269" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C269" s="5"/>
+      <c r="D269" s="6"/>
+    </row>
+    <row r="270" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="271" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B271" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C271" s="32"/>
+      <c r="D271" s="33"/>
+    </row>
+    <row r="272" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B272" s="4">
+        <v>34</v>
+      </c>
+      <c r="C272" s="5">
+        <v>170000</v>
+      </c>
+      <c r="D272" s="6">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="274" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B274" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C274" s="35"/>
+      <c r="D274" s="36"/>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B275" s="1">
+        <v>28</v>
+      </c>
+      <c r="C275" s="2">
+        <v>168000</v>
+      </c>
+      <c r="D275" s="3"/>
+    </row>
+    <row r="276" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B276" s="4">
+        <v>37</v>
+      </c>
+      <c r="C276" s="5">
+        <v>228000</v>
+      </c>
+      <c r="D276" s="6">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="278" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B278" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C278" s="35"/>
+      <c r="D278" s="36"/>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B279" s="1">
+        <v>32</v>
+      </c>
+      <c r="C279" s="2"/>
+      <c r="D279" s="3"/>
+    </row>
+    <row r="280" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B280" s="4">
+        <v>34</v>
+      </c>
+      <c r="C280" s="5">
+        <v>240000</v>
+      </c>
+      <c r="D280" s="6">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="282" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B282" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C282" s="32"/>
+      <c r="D282" s="33"/>
+    </row>
+    <row r="283" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B283" s="4">
+        <v>30</v>
+      </c>
+      <c r="C283" s="5">
+        <v>270000</v>
+      </c>
+      <c r="D283" s="6">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="285" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B285" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C285" s="32"/>
+      <c r="D285" s="33"/>
+    </row>
+    <row r="286" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B286" s="4">
+        <v>31</v>
+      </c>
+      <c r="C286" s="5">
+        <v>269000</v>
+      </c>
+      <c r="D286" s="6">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="288" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B288" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C288" s="35"/>
+      <c r="D288" s="36"/>
+    </row>
+    <row r="289" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B289" s="4">
+        <v>30</v>
+      </c>
+      <c r="C289" s="5">
+        <v>280000</v>
+      </c>
+      <c r="D289" s="6">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="291" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B291" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C291" s="35"/>
+      <c r="D291" s="36"/>
+    </row>
+    <row r="292" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B292" s="4">
+        <v>34</v>
+      </c>
+      <c r="C292" s="5">
+        <v>250000</v>
+      </c>
+      <c r="D292" s="6">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="294" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B294" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C294" s="35"/>
+      <c r="D294" s="36"/>
+    </row>
+    <row r="295" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B295" s="4">
+        <v>32</v>
+      </c>
+      <c r="C295" s="5">
+        <v>227000</v>
+      </c>
+      <c r="D295" s="6">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="297" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B297" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C297" s="38"/>
+      <c r="D297" s="39"/>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B298" s="11">
+        <v>22</v>
+      </c>
+      <c r="C298" s="14">
+        <v>150000</v>
+      </c>
+      <c r="D298" s="15">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B299" s="10">
+        <v>26</v>
+      </c>
+      <c r="C299" s="16">
+        <v>175000</v>
+      </c>
+      <c r="D299" s="17">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B300" s="12">
+        <v>30</v>
+      </c>
+      <c r="C300" s="16">
+        <v>213000</v>
+      </c>
+      <c r="D300" s="17">
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B301" s="4">
+        <v>34</v>
+      </c>
+      <c r="C301" s="5">
+        <v>225000</v>
+      </c>
+      <c r="D301" s="6">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="303" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B303" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C303" s="35"/>
+      <c r="D303" s="36"/>
+    </row>
+    <row r="304" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B304" s="4">
+        <v>31</v>
+      </c>
+      <c r="C304" s="5">
+        <v>210000</v>
+      </c>
+      <c r="D304" s="6">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="306" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B306" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C306" s="32"/>
+      <c r="D306" s="33"/>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B307" s="1">
+        <v>29</v>
+      </c>
+      <c r="C307" s="2">
+        <v>220000</v>
+      </c>
+      <c r="D307" s="3">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B308" s="7">
+        <v>31</v>
+      </c>
+      <c r="C308" s="8">
+        <v>230000</v>
+      </c>
+      <c r="D308" s="9">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B309" s="4">
+        <v>32</v>
+      </c>
+      <c r="C309" s="5"/>
+      <c r="D309" s="6"/>
+    </row>
+    <row r="310" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="311" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B311" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C311" s="35"/>
+      <c r="D311" s="36"/>
+    </row>
+    <row r="312" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B312" s="4">
+        <v>33</v>
+      </c>
+      <c r="C312" s="5">
+        <v>240000</v>
+      </c>
+      <c r="D312" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="314" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B314" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C314" s="56"/>
+      <c r="D314" s="57"/>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B315" s="11">
+        <v>15</v>
+      </c>
+      <c r="C315" s="14"/>
+      <c r="D315" s="15"/>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B316" s="10">
+        <v>21</v>
+      </c>
+      <c r="C316" s="16">
+        <v>170000</v>
+      </c>
+      <c r="D316" s="17"/>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B317" s="12">
+        <v>25</v>
+      </c>
+      <c r="C317" s="16">
+        <v>185000</v>
+      </c>
+      <c r="D317" s="17"/>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B318" s="12">
+        <v>26</v>
+      </c>
+      <c r="C318" s="16">
+        <v>190000</v>
+      </c>
+      <c r="D318" s="17"/>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B319" s="12">
+        <v>33</v>
+      </c>
+      <c r="C319" s="16">
+        <v>245000</v>
+      </c>
+      <c r="D319" s="17"/>
+    </row>
+    <row r="320" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B320" s="13">
+        <v>37</v>
+      </c>
+      <c r="C320" s="18">
+        <v>308500</v>
+      </c>
+      <c r="D320" s="6"/>
+    </row>
+    <row r="321" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="322" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B322" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C322" s="38"/>
+      <c r="D322" s="39"/>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B323" s="11">
+        <v>20</v>
+      </c>
+      <c r="C323" s="14">
+        <v>150000</v>
+      </c>
+      <c r="D323" s="15">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B324" s="10">
+        <v>24</v>
+      </c>
+      <c r="C324" s="16">
+        <v>183000</v>
+      </c>
+      <c r="D324" s="17">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B325" s="12">
+        <v>34</v>
+      </c>
+      <c r="C325" s="16">
+        <v>240000</v>
+      </c>
+      <c r="D325" s="17">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B326" s="13">
+        <v>35</v>
+      </c>
+      <c r="C326" s="18">
+        <v>300000</v>
+      </c>
+      <c r="D326" s="6"/>
+    </row>
+    <row r="327" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="328" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B328" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C328" s="66"/>
+      <c r="D328" s="67"/>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B329" s="11">
+        <v>20</v>
+      </c>
+      <c r="C329" s="14">
+        <v>160000</v>
+      </c>
+      <c r="D329" s="15"/>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B330" s="10">
+        <v>25</v>
+      </c>
+      <c r="C330" s="16">
+        <v>200000</v>
+      </c>
+      <c r="D330" s="17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B331" s="12">
+        <v>31</v>
+      </c>
+      <c r="C331" s="16">
+        <v>250000</v>
+      </c>
+      <c r="D331" s="17">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B332" s="12">
+        <v>34</v>
+      </c>
+      <c r="C332" s="16">
+        <v>260000</v>
+      </c>
+      <c r="D332" s="17">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B333" s="12">
+        <v>35</v>
+      </c>
+      <c r="C333" s="16"/>
+      <c r="D333" s="17">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B334" s="12">
+        <v>36</v>
+      </c>
+      <c r="C334" s="16"/>
+      <c r="D334" s="17"/>
+    </row>
+    <row r="335" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B335" s="13">
+        <v>37</v>
+      </c>
+      <c r="C335" s="18"/>
+      <c r="D335" s="6"/>
+    </row>
+    <row r="336" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="337" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B337" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C337" s="38"/>
+      <c r="D337" s="39"/>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B338" s="11">
+        <v>22</v>
+      </c>
+      <c r="C338" s="14">
+        <v>210000</v>
+      </c>
+      <c r="D338" s="15">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B339" s="10">
+        <v>25</v>
+      </c>
+      <c r="C339" s="16">
+        <v>220000</v>
+      </c>
+      <c r="D339" s="17">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B340" s="12">
+        <v>31</v>
+      </c>
+      <c r="C340" s="16">
+        <v>238000</v>
+      </c>
+      <c r="D340" s="17">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B341" s="13">
+        <v>35</v>
+      </c>
+      <c r="C341" s="18">
+        <v>280000</v>
+      </c>
+      <c r="D341" s="6">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="343" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B343" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C343" s="38"/>
+      <c r="D343" s="39"/>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B344" s="11">
+        <v>20</v>
+      </c>
+      <c r="C344" s="14">
+        <v>180000</v>
+      </c>
+      <c r="D344" s="15">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B345" s="10">
+        <v>23</v>
+      </c>
+      <c r="C345" s="16">
+        <v>195000</v>
+      </c>
+      <c r="D345" s="17">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B346" s="12">
+        <v>28</v>
+      </c>
+      <c r="C346" s="16">
+        <v>215000</v>
+      </c>
+      <c r="D346" s="17">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B347" s="13">
+        <v>32</v>
+      </c>
+      <c r="C347" s="18">
+        <v>250000</v>
+      </c>
+      <c r="D347" s="6">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="349" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B349" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C349" s="38"/>
+      <c r="D349" s="39"/>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B350" s="11">
+        <v>22</v>
+      </c>
+      <c r="C350" s="14">
+        <v>185000</v>
+      </c>
+      <c r="D350" s="15">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B351" s="10">
+        <v>25</v>
+      </c>
+      <c r="C351" s="16">
+        <v>195000</v>
+      </c>
+      <c r="D351" s="17">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B352" s="12">
+        <v>30</v>
+      </c>
+      <c r="C352" s="16">
+        <v>265000</v>
+      </c>
+      <c r="D352" s="17">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B353" s="13">
+        <v>34</v>
+      </c>
+      <c r="C353" s="18">
+        <v>260000</v>
+      </c>
+      <c r="D353" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="355" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B355" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C355" s="66"/>
+      <c r="D355" s="67"/>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B356" s="11">
+        <v>18</v>
+      </c>
+      <c r="C356" s="14"/>
+      <c r="D356" s="15"/>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B357" s="10">
+        <v>20</v>
+      </c>
+      <c r="C357" s="16"/>
+      <c r="D357" s="17"/>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B358" s="12">
+        <v>22</v>
+      </c>
+      <c r="C358" s="16"/>
+      <c r="D358" s="17"/>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B359" s="12">
+        <v>24</v>
+      </c>
+      <c r="C359" s="16">
+        <v>200000</v>
+      </c>
+      <c r="D359" s="17">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B360" s="12">
+        <v>31</v>
+      </c>
+      <c r="C360" s="16">
+        <v>248000</v>
+      </c>
+      <c r="D360" s="17">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B361" s="12">
+        <v>33</v>
+      </c>
+      <c r="C361" s="16">
+        <v>260000</v>
+      </c>
+      <c r="D361" s="17">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B362" s="13">
+        <v>34</v>
+      </c>
+      <c r="C362" s="18"/>
+      <c r="D362" s="6"/>
+    </row>
+    <row r="363" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="364" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B364" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C364" s="32"/>
+      <c r="D364" s="33"/>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B365" s="1">
+        <v>14</v>
+      </c>
+      <c r="C365" s="2">
+        <v>92000</v>
+      </c>
+      <c r="D365" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B366" s="7">
+        <v>17</v>
+      </c>
+      <c r="C366" s="8">
+        <v>115000</v>
+      </c>
+      <c r="D366" s="9">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B367" s="4">
+        <v>20</v>
+      </c>
+      <c r="C367" s="5">
+        <v>125000</v>
+      </c>
+      <c r="D367" s="6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="369" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B369" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C369" s="32"/>
+      <c r="D369" s="33"/>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B370" s="1">
+        <v>17</v>
+      </c>
+      <c r="C370" s="2">
+        <v>112000</v>
+      </c>
+      <c r="D370" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B371" s="7">
+        <v>21</v>
+      </c>
+      <c r="C371" s="8">
+        <v>125000</v>
+      </c>
+      <c r="D371" s="9">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B372" s="4">
+        <v>24</v>
+      </c>
+      <c r="C372" s="5">
+        <v>147000</v>
+      </c>
+      <c r="D372" s="6">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="374" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B374" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C374" s="38"/>
+      <c r="D374" s="39"/>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B375" s="11">
+        <v>24</v>
+      </c>
+      <c r="C375" s="14">
+        <v>220000</v>
+      </c>
+      <c r="D375" s="15">
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B376" s="10">
+        <v>29</v>
+      </c>
+      <c r="C376" s="16">
+        <v>210000</v>
+      </c>
+      <c r="D376" s="17">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B377" s="4">
+        <v>32</v>
+      </c>
+      <c r="C377" s="5">
+        <v>259000</v>
+      </c>
+      <c r="D377" s="6">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="379" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B379" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C379" s="38"/>
+      <c r="D379" s="39"/>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B380" s="11">
+        <v>23</v>
+      </c>
+      <c r="C380" s="14">
+        <v>220000</v>
+      </c>
+      <c r="D380" s="15">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B381" s="10">
+        <v>26</v>
+      </c>
+      <c r="C381" s="16"/>
+      <c r="D381" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B382" s="12">
+        <v>27</v>
+      </c>
+      <c r="C382" s="16">
+        <v>200000</v>
+      </c>
+      <c r="D382" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B383" s="12">
+        <v>30</v>
+      </c>
+      <c r="C383" s="16">
+        <v>215000</v>
+      </c>
+      <c r="D383" s="17">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B384" s="13">
+        <v>32</v>
+      </c>
+      <c r="C384" s="18">
+        <v>210000</v>
+      </c>
+      <c r="D384" s="6">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="386" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B386" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C386" s="32"/>
+      <c r="D386" s="33"/>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B387" s="1">
+        <v>26</v>
+      </c>
+      <c r="C387" s="2">
+        <v>160000</v>
+      </c>
+      <c r="D387" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B388" s="4">
+        <v>34</v>
+      </c>
+      <c r="C388" s="5">
+        <v>189000</v>
+      </c>
+      <c r="D388" s="6">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="390" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B390" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C390" s="32"/>
+      <c r="D390" s="33"/>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B391" s="1">
+        <v>26</v>
+      </c>
+      <c r="C391" s="2">
+        <v>180000</v>
+      </c>
+      <c r="D391" s="3">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B392" s="1">
+        <v>30</v>
+      </c>
+      <c r="C392" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D392" s="3">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B393" s="1">
+        <v>34</v>
+      </c>
+      <c r="C393" s="2">
+        <v>235000</v>
+      </c>
+      <c r="D393" s="3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B394" s="4">
+        <v>35</v>
+      </c>
+      <c r="C394" s="5">
+        <v>240000</v>
+      </c>
+      <c r="D394" s="6">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="396" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B396" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C396" s="32"/>
+      <c r="D396" s="33"/>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B397" s="12">
+        <v>17</v>
+      </c>
+      <c r="C397" s="16">
+        <v>87000</v>
+      </c>
+      <c r="D397" s="17">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B398" s="12">
+        <v>21</v>
+      </c>
+      <c r="C398" s="16">
+        <v>120000</v>
+      </c>
+      <c r="D398" s="17">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B399" s="12">
+        <v>23</v>
+      </c>
+      <c r="C399" s="16">
+        <v>97000</v>
+      </c>
+      <c r="D399" s="17">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B400" s="12">
+        <v>25</v>
+      </c>
+      <c r="C400" s="16">
+        <v>130000</v>
+      </c>
+      <c r="D400" s="17">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B401" s="13">
+        <v>26</v>
+      </c>
+      <c r="C401" s="18">
+        <v>120000</v>
+      </c>
+      <c r="D401" s="6">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="403" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B403" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C403" s="32"/>
+      <c r="D403" s="33"/>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B404" s="1">
+        <v>25</v>
+      </c>
+      <c r="C404" s="2">
+        <v>157000</v>
+      </c>
+      <c r="D404" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B405" s="4">
+        <v>33</v>
+      </c>
+      <c r="C405" s="5">
+        <v>190000</v>
+      </c>
+      <c r="D405" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="407" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B407" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C407" s="32"/>
+      <c r="D407" s="33"/>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B408" s="1">
+        <v>24</v>
+      </c>
+      <c r="C408" s="2">
+        <v>130000</v>
+      </c>
+      <c r="D408" s="3">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B409" s="4">
+        <v>31</v>
+      </c>
+      <c r="C409" s="5">
+        <v>169000</v>
+      </c>
+      <c r="D409" s="6">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="411" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B411" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C411" s="32"/>
+      <c r="D411" s="33"/>
+    </row>
+    <row r="412" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B412" s="4">
+        <v>36</v>
+      </c>
+      <c r="C412" s="5">
+        <v>200000</v>
+      </c>
+      <c r="D412" s="6">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="414" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B414" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C414" s="32"/>
+      <c r="D414" s="33"/>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B415" s="1">
+        <v>27</v>
+      </c>
+      <c r="C415" s="2">
+        <v>175000</v>
+      </c>
+      <c r="D415" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B416" s="4">
+        <v>30</v>
+      </c>
+      <c r="C416" s="5">
+        <v>200000</v>
+      </c>
+      <c r="D416" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="418" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B418" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C418" s="32"/>
+      <c r="D418" s="33"/>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B419" s="1">
+        <v>27</v>
+      </c>
+      <c r="C419" s="2">
+        <v>175000</v>
+      </c>
+      <c r="D419" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B420" s="4">
+        <v>30</v>
+      </c>
+      <c r="C420" s="5">
+        <v>220000</v>
+      </c>
+      <c r="D420" s="6">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="422" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B422" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C422" s="32"/>
+      <c r="D422" s="33"/>
+    </row>
+    <row r="423" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B423" s="4">
+        <v>36</v>
+      </c>
+      <c r="C423" s="5">
+        <v>200000</v>
+      </c>
+      <c r="D423" s="6">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="425" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B425" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C425" s="38"/>
+      <c r="D425" s="39"/>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B426" s="11">
+        <v>14</v>
+      </c>
+      <c r="C426" s="14">
+        <v>83000</v>
+      </c>
+      <c r="D426" s="15">
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B427" s="10">
+        <v>17</v>
+      </c>
+      <c r="C427" s="16">
+        <v>90000</v>
+      </c>
+      <c r="D427" s="17">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B428" s="4">
+        <v>21</v>
+      </c>
+      <c r="C428" s="5">
+        <v>115000</v>
+      </c>
+      <c r="D428" s="6">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="430" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B430" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C430" s="32"/>
+      <c r="D430" s="33"/>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B431" s="1">
+        <v>23</v>
+      </c>
+      <c r="C431" s="2">
+        <v>145000</v>
+      </c>
+      <c r="D431" s="3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B432" s="4">
+        <v>31</v>
+      </c>
+      <c r="C432" s="5">
+        <v>165000</v>
+      </c>
+      <c r="D432" s="6">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="434" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B434" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C434" s="32"/>
+      <c r="D434" s="33"/>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B435" s="1">
+        <v>24</v>
+      </c>
+      <c r="C435" s="2">
+        <v>137000</v>
+      </c>
+      <c r="D435" s="3">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B436" s="1">
+        <v>25</v>
+      </c>
+      <c r="C436" s="2"/>
+      <c r="D436" s="3">
+        <v>68250</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B437" s="1">
+        <v>34</v>
+      </c>
+      <c r="C437" s="2">
+        <v>172000</v>
+      </c>
+      <c r="D437" s="3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B438" s="4">
+        <v>35</v>
+      </c>
+      <c r="C438" s="5">
+        <v>170000</v>
+      </c>
+      <c r="D438" s="6">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="440" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B440" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C440" s="32"/>
+      <c r="D440" s="33"/>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B441" s="1">
+        <v>22</v>
+      </c>
+      <c r="C441" s="2">
+        <v>120000</v>
+      </c>
+      <c r="D441" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B442" s="4">
+        <v>30</v>
+      </c>
+      <c r="C442" s="5">
+        <v>150000</v>
+      </c>
+      <c r="D442" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="444" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B444" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C444" s="32"/>
+      <c r="D444" s="33"/>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B445" s="1">
+        <v>14</v>
+      </c>
+      <c r="C445" s="2">
+        <v>87000</v>
+      </c>
+      <c r="D445" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B446" s="1">
+        <v>16</v>
+      </c>
+      <c r="C446" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D446" s="3">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B447" s="1">
+        <v>18</v>
+      </c>
+      <c r="C447" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D447" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B448" s="4">
+        <v>21</v>
+      </c>
+      <c r="C448" s="5">
+        <v>115000</v>
+      </c>
+      <c r="D448" s="6">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="449" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="450" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B450" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C450" s="38"/>
+      <c r="D450" s="39"/>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B451" s="11">
+        <v>20</v>
+      </c>
+      <c r="C451" s="14">
+        <v>120000</v>
+      </c>
+      <c r="D451" s="15">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B452" s="10">
+        <v>26</v>
+      </c>
+      <c r="C452" s="16">
+        <v>135000</v>
+      </c>
+      <c r="D452" s="17">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B453" s="4">
+        <v>34</v>
+      </c>
+      <c r="C453" s="5">
+        <v>170000</v>
+      </c>
+      <c r="D453" s="6">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="455" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B455" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C455" s="32"/>
+      <c r="D455" s="33"/>
+    </row>
+    <row r="456" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B456" s="4">
+        <v>36</v>
+      </c>
+      <c r="C456" s="5">
+        <v>170000</v>
+      </c>
+      <c r="D456" s="6">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="458" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B458" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C458" s="32"/>
+      <c r="D458" s="33"/>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B459" s="1">
+        <v>22</v>
+      </c>
+      <c r="C459" s="2">
+        <v>90000</v>
+      </c>
+      <c r="D459" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B460" s="1">
+        <v>25</v>
+      </c>
+      <c r="C460" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D460" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B461" s="1">
+        <v>32</v>
+      </c>
+      <c r="C461" s="2">
+        <v>119000</v>
+      </c>
+      <c r="D461" s="3">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B462" s="4">
+        <v>36</v>
+      </c>
+      <c r="C462" s="5">
+        <v>125000</v>
+      </c>
+      <c r="D462" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="464" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B464" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C464" s="32"/>
+      <c r="D464" s="33"/>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B465" s="1">
+        <v>31</v>
+      </c>
+      <c r="C465" s="2">
+        <v>105000</v>
+      </c>
+      <c r="D465" s="3">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B466" s="4">
+        <v>35</v>
+      </c>
+      <c r="C466" s="5">
+        <v>110000</v>
+      </c>
+      <c r="D466" s="6">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="468" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B468" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C468" s="35"/>
+      <c r="D468" s="36"/>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B469" s="1">
+        <v>36</v>
+      </c>
+      <c r="C469" s="2">
+        <v>170000</v>
+      </c>
+      <c r="D469" s="3">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B470" s="4">
+        <v>37</v>
+      </c>
+      <c r="C470" s="5"/>
+      <c r="D470" s="6"/>
+    </row>
+    <row r="471" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="472" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B472" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C472" s="32"/>
+      <c r="D472" s="33"/>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B473" s="1">
+        <v>24</v>
+      </c>
+      <c r="C473" s="2">
+        <v>126000</v>
+      </c>
+      <c r="D473" s="3">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B474" s="1">
+        <v>30</v>
+      </c>
+      <c r="C474" s="2">
+        <v>135000</v>
+      </c>
+      <c r="D474" s="3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B475" s="4">
+        <v>34</v>
+      </c>
+      <c r="C475" s="5">
+        <v>150000</v>
+      </c>
+      <c r="D475" s="6">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="477" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B477" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C477" s="35"/>
+      <c r="D477" s="36"/>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B478" s="1">
+        <v>22</v>
+      </c>
+      <c r="C478" s="2"/>
+      <c r="D478" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B479" s="4">
+        <v>26</v>
+      </c>
+      <c r="C479" s="5"/>
+      <c r="D479" s="6"/>
+    </row>
+    <row r="480" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="481" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B481" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C481" s="32"/>
+      <c r="D481" s="33"/>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B482" s="1">
+        <v>25</v>
+      </c>
+      <c r="C482" s="2"/>
+      <c r="D482" s="3">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B483" s="1">
+        <v>35</v>
+      </c>
+      <c r="C483" s="2">
+        <v>150000</v>
+      </c>
+      <c r="D483" s="3">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B484" s="4">
+        <v>36</v>
+      </c>
+      <c r="C484" s="5">
+        <v>170000</v>
+      </c>
+      <c r="D484" s="6">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="486" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B486" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C486" s="35"/>
+      <c r="D486" s="36"/>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B487" s="1">
+        <v>24</v>
+      </c>
+      <c r="C487" s="2">
+        <v>123000</v>
+      </c>
+      <c r="D487" s="3">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B488" s="4">
+        <v>34</v>
+      </c>
+      <c r="C488" s="5">
+        <v>155000</v>
+      </c>
+      <c r="D488" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="490" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B490" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C490" s="32"/>
+      <c r="D490" s="33"/>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B491" s="1">
+        <v>24</v>
+      </c>
+      <c r="C491" s="2">
+        <v>116000</v>
+      </c>
+      <c r="D491" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B492" s="1">
+        <v>30</v>
+      </c>
+      <c r="C492" s="2">
+        <v>134000</v>
+      </c>
+      <c r="D492" s="3">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B493" s="4">
+        <v>34</v>
+      </c>
+      <c r="C493" s="5">
+        <v>137000</v>
+      </c>
+      <c r="D493" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="494" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="495" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B495" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C495" s="35"/>
+      <c r="D495" s="36"/>
+    </row>
+    <row r="496" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B496" s="4">
+        <v>26</v>
+      </c>
+      <c r="C496" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D496" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="498" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B498" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C498" s="35"/>
+      <c r="D498" s="36"/>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B499" s="1">
+        <v>32</v>
+      </c>
+      <c r="C499" s="2">
+        <v>120000</v>
+      </c>
+      <c r="D499" s="3">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B500" s="4">
+        <v>33</v>
+      </c>
+      <c r="C500" s="5">
+        <v>125000</v>
+      </c>
+      <c r="D500" s="6">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="502" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B502" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C502" s="35"/>
+      <c r="D502" s="36"/>
+    </row>
+    <row r="503" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B503" s="4">
+        <v>35</v>
+      </c>
+      <c r="C503" s="5">
+        <v>130000</v>
+      </c>
+      <c r="D503" s="6">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="505" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B505" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C505" s="35"/>
+      <c r="D505" s="36"/>
+    </row>
+    <row r="506" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B506" s="4">
+        <v>35</v>
+      </c>
+      <c r="C506" s="5">
+        <v>130000</v>
+      </c>
+      <c r="D506" s="6">
+        <v>35481</v>
+      </c>
+    </row>
+    <row r="507" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="508" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B508" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C508" s="32"/>
+      <c r="D508" s="33"/>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B509" s="1">
+        <v>24</v>
+      </c>
+      <c r="C509" s="2">
+        <v>120000</v>
+      </c>
+      <c r="D509" s="3">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B510" s="1">
+        <v>31</v>
+      </c>
+      <c r="C510" s="2">
+        <v>145000</v>
+      </c>
+      <c r="D510" s="3">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B511" s="4">
+        <v>35</v>
+      </c>
+      <c r="C511" s="5">
+        <v>150000</v>
+      </c>
+      <c r="D511" s="6">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="512" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="513" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B513" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C513" s="35"/>
+      <c r="D513" s="36"/>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B514" s="1">
+        <v>26</v>
+      </c>
+      <c r="C514" s="2">
+        <v>115000</v>
+      </c>
+      <c r="D514" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B515" s="4">
+        <v>36</v>
+      </c>
+      <c r="C515" s="5">
+        <v>145000</v>
+      </c>
+      <c r="D515" s="6">
+        <v>65000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="116">
+    <mergeCell ref="B508:D508"/>
+    <mergeCell ref="B513:D513"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="B495:D495"/>
+    <mergeCell ref="B498:D498"/>
+    <mergeCell ref="B502:D502"/>
+    <mergeCell ref="B505:D505"/>
+    <mergeCell ref="B468:D468"/>
+    <mergeCell ref="B472:D472"/>
+    <mergeCell ref="B477:D477"/>
+    <mergeCell ref="B481:D481"/>
+    <mergeCell ref="B486:D486"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="B450:D450"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="B458:D458"/>
+    <mergeCell ref="B464:D464"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B425:D425"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="B434:D434"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="B407:D407"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B390:D390"/>
+    <mergeCell ref="B396:D396"/>
+    <mergeCell ref="B403:D403"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B314:D314"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B337:D337"/>
+    <mergeCell ref="B343:D343"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="B297:D297"/>
+    <mergeCell ref="B303:D303"/>
+    <mergeCell ref="B306:D306"/>
+    <mergeCell ref="B311:D311"/>
     <mergeCell ref="B185:D185"/>
     <mergeCell ref="B189:D189"/>
     <mergeCell ref="B193:D193"/>
-    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B212:D212"/>
     <mergeCell ref="B161:D161"/>
     <mergeCell ref="B168:D168"/>
     <mergeCell ref="B172:D172"/>
@@ -2746,6 +5558,29 @@
     <mergeCell ref="B125:D125"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B265:D265"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B247:D247"/>
+    <mergeCell ref="B251:D251"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B257:D257"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B285:D285"/>
+    <mergeCell ref="B288:D288"/>
+    <mergeCell ref="B291:D291"/>
+    <mergeCell ref="B268:D268"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B278:D278"/>
+    <mergeCell ref="B282:D282"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2758,16 +5593,16 @@
   <dimension ref="B3:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
@@ -2781,9 +5616,9 @@
     </row>
     <row r="8" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
@@ -2802,9 +5637,9 @@
     </row>
     <row r="15" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
@@ -2828,9 +5663,9 @@
     </row>
     <row r="24" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
